--- a/unsteady/test_cases/trench_sediment/adapt_output.xlsx
+++ b/unsteady/test_cases/trench_sediment/adapt_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mc4117/Documents/adapt_utils/unsteady/test_cases/trench_sediment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F24A15B8-304E-BE4D-B2BB-551A358B5967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7A0DB6-879E-3040-AD0E-C2089FA1DAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12760" windowHeight="15540" xr2:uid="{6E3DA51A-441E-2A4D-B7E6-91A071168334}"/>
   </bookViews>
@@ -473,21 +473,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10606F8F-2CF2-F24F-9F2B-6B5CA5CC7A31}">
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:T131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N74" sqref="N74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C1" s="4">
-        <f t="shared" ref="C1:I1" si="0">16/(16*5*C2)</f>
+        <f t="shared" ref="C1:H1" si="0">16/(16*5*C2)</f>
         <v>2</v>
       </c>
       <c r="D1" s="6">
@@ -511,25 +511,31 @@
         <v>0.4</v>
       </c>
       <c r="I1" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I1" si="1">16/(16*5*I2)</f>
         <v>0.25</v>
       </c>
-      <c r="J1" s="4"/>
+      <c r="J1" s="6">
+        <f t="shared" ref="J1:K1" si="2">16/(16*5*J2)</f>
+        <v>0.2</v>
+      </c>
       <c r="K1" s="6">
-        <f t="shared" ref="K1" si="1">16/(16*5*K2)</f>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="L1" s="6">
+        <f t="shared" ref="L1" si="3">16/(16*5*L2)</f>
+        <v>0.05</v>
+      </c>
+      <c r="N1" s="4">
+        <f>16/(16*5*N2)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O1" s="6">
+        <f>16/(16*5*O2)</f>
         <v>0.2</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6">
-        <f t="shared" ref="M1" si="2">16/(16*5*M2)</f>
-        <v>0.1</v>
-      </c>
-      <c r="N1" s="6">
-        <f t="shared" ref="N1" si="3">16/(16*5*N2)</f>
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -557,17 +563,23 @@
       <c r="I2">
         <v>0.8</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
       <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>0.8</v>
+      </c>
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="M2">
-        <v>2</v>
-      </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>0</v>
       </c>
@@ -589,31 +601,30 @@
       <c r="H3" s="5">
         <v>4.21457323985822E-6</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="5">
+        <v>3.7107909973054302E-7</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1.29778040193515E-6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>6.7067641487466201E-8</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1"/>
+      <c r="N3" s="2">
         <v>3.8257160645587299E-7</v>
       </c>
-      <c r="J3" s="5">
-        <v>3.7107909973054302E-7</v>
-      </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>1.1840060710391301E-6</v>
       </c>
-      <c r="L3" s="5">
-        <v>1.29778040193515E-6</v>
-      </c>
-      <c r="M3" s="2">
-        <v>6.7067641487466201E-8</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1</v>
       </c>
@@ -624,17 +635,17 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5">
+        <v>2.3155289313231199E-7</v>
+      </c>
+      <c r="J4" s="5"/>
+      <c r="N4" s="5">
         <v>2.8259996187478399E-7</v>
       </c>
-      <c r="J4" s="5">
-        <v>2.3155289313231199E-7</v>
-      </c>
-      <c r="K4" s="5">
+      <c r="O4" s="5">
         <v>1.04183495226648E-6</v>
       </c>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -657,24 +668,23 @@
         <v>2.0663698324456402E-6</v>
       </c>
       <c r="I5" s="5">
+        <v>2.4192277137131598E-7</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1.0962697175190501E-6</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="5">
         <v>2.8883718809961801E-7</v>
       </c>
-      <c r="J5" s="5">
-        <v>2.4192277137131598E-7</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="O5" s="5">
         <v>9.9424389761432593E-7</v>
       </c>
-      <c r="L5" s="5">
-        <v>1.0962697175190501E-6</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>3</v>
       </c>
@@ -691,23 +701,21 @@
         <v>1.87398463841668E-6</v>
       </c>
       <c r="I6" s="5">
+        <v>2.6143464086781599E-7</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="5">
         <v>3.0707989995666699E-7</v>
       </c>
-      <c r="J6" s="5">
-        <v>2.6143464086781599E-7</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="O6" s="5">
         <v>9.46690000459141E-7</v>
       </c>
-      <c r="L6" s="11"/>
-      <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-    </row>
-    <row r="7" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
@@ -724,24 +732,24 @@
         <v>1.76114530214561E-6</v>
       </c>
       <c r="I7" s="5">
+        <v>2.5626106340823498E-7</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1.05000959755599E-6</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="5">
         <v>2.9921998592346798E-7</v>
       </c>
-      <c r="J7" s="5">
-        <v>2.5626106340823498E-7</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="O7" s="5">
         <v>9.3632254110717599E-7</v>
       </c>
-      <c r="L7" s="5">
-        <v>1.05000959755599E-6</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="O7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P7" s="1"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>5</v>
       </c>
@@ -764,24 +772,24 @@
         <v>1.69847366278732E-6</v>
       </c>
       <c r="I8" s="5">
+        <v>2.6716538558849199E-7</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.00877661531327E-6</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="5">
         <v>3.05815304606061E-7</v>
       </c>
-      <c r="J8" s="5">
-        <v>2.6716538558849199E-7</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="O8" s="5">
         <v>8.9391396700686603E-7</v>
       </c>
-      <c r="L8" s="5">
-        <v>1.00877661531327E-6</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P8" s="1"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>6</v>
       </c>
@@ -798,24 +806,25 @@
         <v>1.6624644538490001E-6</v>
       </c>
       <c r="I9" s="5">
+        <v>2.7650381767369501E-7</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.0050510452474E-6</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="5">
         <v>3.3056589656043799E-7</v>
       </c>
-      <c r="J9" s="5">
-        <v>2.7650381767369501E-7</v>
-      </c>
-      <c r="K9" s="9">
+      <c r="O9" s="9">
         <v>8.5651072992943796E-7</v>
       </c>
-      <c r="L9" s="5">
-        <v>1.0050510452474E-6</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P9" s="1"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>7</v>
       </c>
@@ -832,23 +841,23 @@
         <v>1.7240284495028499E-6</v>
       </c>
       <c r="I10" s="5">
+        <v>2.8169786742478001E-7</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1.0636301746070201E-6</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="5">
         <v>3.2706409264169902E-7</v>
       </c>
-      <c r="J10" s="5">
-        <v>2.8169786742478001E-7</v>
-      </c>
-      <c r="K10" s="5">
+      <c r="O10" s="5">
         <v>9.4426451006231697E-7</v>
       </c>
-      <c r="L10" s="5">
-        <v>1.0636301746070201E-6</v>
-      </c>
-      <c r="O10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P10" s="1"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>8</v>
       </c>
@@ -863,17 +872,17 @@
         <v>1.6969256190270901E-6</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5">
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
         <v>8.7506344864068499E-7</v>
       </c>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P11" s="1"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>10</v>
       </c>
@@ -896,20 +905,20 @@
         <v>1.7017275080280499E-6</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="5">
+      <c r="J12" s="5">
+        <v>9.4282246632336898E-7</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="5">
         <v>8.0202321815319698E-7</v>
       </c>
-      <c r="L12" s="5">
-        <v>9.4282246632336898E-7</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P12" s="1"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>12</v>
       </c>
@@ -924,19 +933,19 @@
         <v>1.81452450816716E-6</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="5">
+      <c r="J13" s="5">
+        <v>9.73716093894904E-7</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="5">
         <v>8.4002697216109096E-7</v>
       </c>
-      <c r="L13" s="5">
-        <v>9.73716093894904E-7</v>
-      </c>
-      <c r="O13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-    </row>
-    <row r="14" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="P13" s="1"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+    </row>
+    <row r="14" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>15</v>
       </c>
@@ -959,18 +968,18 @@
         <v>1.90387724628071E-6</v>
       </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="5">
+      <c r="J14" s="5"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="5">
         <v>8.2300264717124599E-7</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P14" s="1"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>17</v>
       </c>
@@ -991,19 +1000,19 @@
         <v>1.9617743967073601E-6</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="5">
+      <c r="J15" s="5">
+        <v>9.0882348420222503E-7</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="5">
         <v>8.2571530099156896E-7</v>
       </c>
-      <c r="L15" s="5">
-        <v>9.0882348420222503E-7</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-    </row>
-    <row r="16" spans="1:22" ht="19" x14ac:dyDescent="0.25">
+      <c r="P15" s="1"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" spans="1:20" ht="19" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>20</v>
       </c>
@@ -1026,16 +1035,16 @@
         <v>2.1463486306603999E-6</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="5">
+      <c r="M16" s="1"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="5">
         <v>7.6403716000770305E-7</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="P16" s="1"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17">
         <v>25</v>
       </c>
@@ -1057,17 +1066,17 @@
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="N17" t="s">
+      <c r="L17" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-    </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M17" s="1"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>30</v>
       </c>
@@ -1091,14 +1100,14 @@
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="O18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-    </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M18" s="1"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>35</v>
       </c>
@@ -1115,14 +1124,14 @@
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="O19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>40</v>
       </c>
@@ -1144,14 +1153,14 @@
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="O20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-    </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M20" s="1"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>50</v>
       </c>
@@ -1171,14 +1180,14 @@
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="O21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M21" s="1"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>60</v>
       </c>
@@ -1196,14 +1205,14 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="O22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-    </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M22" s="1"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>70</v>
       </c>
@@ -1219,14 +1228,14 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="O23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M23" s="1"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>80</v>
       </c>
@@ -1240,14 +1249,14 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="O24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-    </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M24" s="1"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>90</v>
       </c>
@@ -1261,14 +1270,14 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="O25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M25" s="1"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>100</v>
       </c>
@@ -1282,14 +1291,14 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="O26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M26" s="1"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>110</v>
       </c>
@@ -1303,14 +1312,14 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="O27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-    </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M27" s="1"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>120</v>
       </c>
@@ -1324,14 +1333,14 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="O28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M28" s="1"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>130</v>
       </c>
@@ -1345,14 +1354,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="O29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M29" s="1"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>140</v>
       </c>
@@ -1366,14 +1375,14 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="O30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M30" s="1"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>150</v>
       </c>
@@ -1387,14 +1396,14 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="O31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="M31" s="1"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>160</v>
       </c>
@@ -1408,14 +1417,14 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="O32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M32" s="1"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="1"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>180</v>
       </c>
@@ -1428,14 +1437,14 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="O33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-    </row>
-    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="M33" s="1"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+    </row>
+    <row r="34" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1">
         <v>6.6975001410800303E-2</v>
       </c>
@@ -1454,28 +1463,28 @@
       <c r="H34" s="1">
         <v>3.0463907123224599E-2</v>
       </c>
-      <c r="I34" s="1">
-        <v>3.0663299235936602E-2</v>
-      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1">
+        <v>3.0679375488582499E-2</v>
+      </c>
+      <c r="L34" s="1">
+        <v>3.0688242695146199E-2</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N34" s="1">
+        <v>3.0663299235936602E-2</v>
+      </c>
+      <c r="O34" s="1">
         <v>3.0722071742637198E-2</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1">
-        <v>3.0679375488582499E-2</v>
-      </c>
-      <c r="N34" s="1">
-        <v>3.0688242695146199E-2</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="R34" s="1"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-    </row>
-    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="1"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+    </row>
+    <row r="35" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1">
         <v>5.8670821534324798E-2</v>
       </c>
@@ -1494,26 +1503,26 @@
       <c r="H35" s="1">
         <v>3.0743625874216401E-2</v>
       </c>
-      <c r="I35" s="1">
-        <v>3.06632992372394E-2</v>
-      </c>
+      <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1">
+        <v>3.0679375547384102E-2</v>
+      </c>
+      <c r="L35" s="1">
+        <v>3.0688242695146199E-2</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35" s="1">
+        <v>3.06632992372394E-2</v>
+      </c>
+      <c r="O35" s="1">
         <v>3.1216731887018099E-2</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1">
-        <v>3.0679375547384102E-2</v>
-      </c>
-      <c r="N35" s="1">
-        <v>3.0688242695146199E-2</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="1"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1541,25 +1550,31 @@
       <c r="I36">
         <v>0.8</v>
       </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
       <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36">
+        <v>0.8</v>
+      </c>
+      <c r="O36">
         <v>1</v>
       </c>
-      <c r="M36">
-        <v>2</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="R36" s="1"/>
-    </row>
-    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="C37">
         <f>16/(16*5*C36)</f>
         <v>2</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:N37" si="4">16/(16*5*D36)</f>
+        <f t="shared" ref="D37:L37" si="4">16/(16*5*D36)</f>
         <v>1.6</v>
       </c>
       <c r="E37">
@@ -1578,26 +1593,26 @@
         <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
-      <c r="I37">
-        <f t="shared" si="4"/>
-        <v>0.25</v>
-      </c>
       <c r="K37">
         <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="N37">
+      <c r="L37">
         <f t="shared" si="4"/>
         <v>0.05</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="R37" s="1"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="M37" s="1"/>
+      <c r="N37">
+        <f>16/(16*5*N36)</f>
+        <v>0.25</v>
+      </c>
+      <c r="O37">
+        <f>16/(16*5*O36)</f>
+        <v>0.2</v>
+      </c>
+      <c r="P37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>0</v>
       </c>
@@ -1620,29 +1635,29 @@
         <v>2.40612839971239E-2</v>
       </c>
       <c r="I38" s="1">
+        <v>2.4290542991098701E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.4640979288356901E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <v>2.4400064916509898E-2</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2.44266853643644E-2</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N38" s="1">
         <v>2.4304544996965698E-2</v>
       </c>
-      <c r="J38" s="1">
-        <v>2.4290542991098701E-2</v>
-      </c>
-      <c r="K38" s="1">
+      <c r="O38" s="1">
         <v>2.4652897984429701E-2</v>
       </c>
-      <c r="L38" s="1">
-        <v>2.4640979288356901E-2</v>
-      </c>
-      <c r="M38" s="1">
-        <v>2.4400064916509898E-2</v>
-      </c>
-      <c r="N38" s="1">
-        <v>2.44266853643644E-2</v>
-      </c>
-      <c r="O38" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="R38" s="1"/>
-    </row>
-    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" hidden="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1">
         <v>5.1664833608088698E-2</v>
       </c>
@@ -1661,26 +1676,26 @@
       <c r="H39" s="1">
         <v>2.3997192044003999E-2</v>
       </c>
-      <c r="I39" s="1">
-        <v>2.4304544996135199E-2</v>
-      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1">
+        <v>2.44000648750183E-2</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2.4426685352147901E-2</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2.4304544996135199E-2</v>
+      </c>
+      <c r="O39" s="1">
         <v>2.4350502898450001E-2</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1">
-        <v>2.44000648750183E-2</v>
-      </c>
-      <c r="N39" s="1">
-        <v>2.4426685352147901E-2</v>
-      </c>
-      <c r="O39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R39" s="1"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>1</v>
       </c>
@@ -1690,19 +1705,19 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="I40" s="1">
+        <v>2.42531911612868E-2</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1">
         <v>2.4285831908260998E-2</v>
       </c>
-      <c r="J40" s="1">
-        <v>2.42531911612868E-2</v>
-      </c>
-      <c r="K40" s="1">
+      <c r="O40" s="1">
         <v>2.4686188001440301E-2</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="R40" s="1"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>2</v>
       </c>
@@ -1725,21 +1740,21 @@
         <v>2.40257352005473E-2</v>
       </c>
       <c r="I41" s="1">
+        <v>2.4244203715575199E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2.4670108572533E-2</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1">
         <v>2.4279681319745498E-2</v>
       </c>
-      <c r="J41" s="1">
-        <v>2.4244203715575199E-2</v>
-      </c>
-      <c r="K41" s="1">
+      <c r="O41" s="1">
         <v>2.47007629302082E-2</v>
       </c>
-      <c r="L41" s="1">
-        <v>2.4670108572533E-2</v>
-      </c>
-      <c r="O41" s="1"/>
-      <c r="R41" s="1"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>3</v>
       </c>
@@ -1756,19 +1771,19 @@
         <v>2.4042729787827601E-2</v>
       </c>
       <c r="I42" s="1">
+        <v>2.4278237415596898E-2</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1">
         <v>2.43008064432053E-2</v>
       </c>
-      <c r="J42" s="1">
-        <v>2.4278237415596898E-2</v>
-      </c>
-      <c r="K42" s="1">
+      <c r="O42" s="1">
         <v>2.46772460517093E-2</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="R42" s="1"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>4</v>
       </c>
@@ -1785,21 +1800,21 @@
         <v>2.3814084637151001E-2</v>
       </c>
       <c r="I43" s="1">
+        <v>2.4285489847883701E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.46224004430219E-2</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1">
         <v>2.42661777645134E-2</v>
       </c>
-      <c r="J43" s="1">
-        <v>2.4285489847883701E-2</v>
-      </c>
-      <c r="K43" s="1">
+      <c r="O43" s="1">
         <v>2.46424608003908E-2</v>
       </c>
-      <c r="L43" s="1">
-        <v>2.46224004430219E-2</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="R43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>5</v>
       </c>
@@ -1822,21 +1837,21 @@
         <v>2.4110046681913602E-2</v>
       </c>
       <c r="I44" s="1">
+        <v>2.4243901104329401E-2</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.4640920304511899E-2</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1">
         <v>2.4291003049207099E-2</v>
       </c>
-      <c r="J44" s="1">
-        <v>2.4243901104329401E-2</v>
-      </c>
-      <c r="K44" s="1">
+      <c r="O44" s="1">
         <v>2.4669590372638901E-2</v>
       </c>
-      <c r="L44" s="1">
-        <v>2.4640920304511899E-2</v>
-      </c>
-      <c r="O44" s="1"/>
-      <c r="R44" s="1"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>6</v>
       </c>
@@ -1853,21 +1868,21 @@
         <v>2.38297758526872E-2</v>
       </c>
       <c r="I45" s="1">
+        <v>2.4261228565062999E-2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.46615976092368E-2</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1">
         <v>2.4235644423204999E-2</v>
       </c>
-      <c r="J45" s="1">
-        <v>2.4261228565062999E-2</v>
-      </c>
-      <c r="K45" s="1">
+      <c r="O45" s="1">
         <v>2.4666443377157E-2</v>
       </c>
-      <c r="L45" s="1">
-        <v>2.46615976092368E-2</v>
-      </c>
-      <c r="O45" s="1"/>
-      <c r="R45" s="1"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>7</v>
       </c>
@@ -1884,21 +1899,21 @@
         <v>2.3763581740853201E-2</v>
       </c>
       <c r="I46" s="1">
+        <v>2.4243753942913799E-2</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.4646713844936601E-2</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1">
         <v>2.4284171349628E-2</v>
       </c>
-      <c r="J46" s="1">
-        <v>2.4243753942913799E-2</v>
-      </c>
-      <c r="K46" s="1">
+      <c r="O46" s="1">
         <v>2.46609890158897E-2</v>
       </c>
-      <c r="L46" s="1">
-        <v>2.4646713844936601E-2</v>
-      </c>
-      <c r="O46" s="1"/>
-      <c r="R46" s="1"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47">
         <v>8</v>
       </c>
@@ -1912,13 +1927,13 @@
       <c r="H47" s="1">
         <v>2.3899107173317901E-2</v>
       </c>
-      <c r="K47" s="1">
+      <c r="M47" s="1"/>
+      <c r="O47" s="1">
         <v>2.4659407411940601E-2</v>
       </c>
-      <c r="O47" s="1"/>
-      <c r="R47" s="1"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48">
         <v>10</v>
       </c>
@@ -1940,16 +1955,16 @@
       <c r="H48" s="1">
         <v>2.3848074074777001E-2</v>
       </c>
-      <c r="K48" s="1">
+      <c r="J48" s="1">
+        <v>2.4653430832835201E-2</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="O48" s="1">
         <v>2.46662148857919E-2</v>
       </c>
-      <c r="L48" s="1">
-        <v>2.4653430832835201E-2</v>
-      </c>
-      <c r="O48" s="1"/>
-      <c r="R48" s="1"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B49">
         <v>12</v>
       </c>
@@ -1963,16 +1978,16 @@
       <c r="H49" s="1">
         <v>2.3809403675077299E-2</v>
       </c>
-      <c r="K49" s="1">
+      <c r="J49" s="1">
+        <v>2.4645212106131801E-2</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="O49" s="1">
         <v>2.46471553847455E-2</v>
       </c>
-      <c r="L49" s="1">
-        <v>2.4645212106131801E-2</v>
-      </c>
-      <c r="O49" s="1"/>
-      <c r="R49" s="1"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B50">
         <v>15</v>
       </c>
@@ -1994,14 +2009,14 @@
       <c r="H50" s="1">
         <v>2.3864681635586901E-2</v>
       </c>
-      <c r="K50" s="1">
+      <c r="J50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="O50" s="1">
         <v>2.4647701736771801E-2</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="R50" s="1"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B51">
         <v>17</v>
       </c>
@@ -2020,16 +2035,16 @@
       <c r="H51" s="1">
         <v>2.3844456267259301E-2</v>
       </c>
-      <c r="K51" s="1">
+      <c r="J51" s="1">
+        <v>2.4655597691987201E-2</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="O51" s="1">
         <v>2.4654218579072001E-2</v>
       </c>
-      <c r="L51" s="1">
-        <v>2.4655597691987201E-2</v>
-      </c>
-      <c r="O51" s="1"/>
-      <c r="R51" s="1"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B52">
         <v>20</v>
       </c>
@@ -2051,13 +2066,13 @@
       <c r="H52" s="1">
         <v>2.3733918379116498E-2</v>
       </c>
-      <c r="K52" s="1">
+      <c r="M52" s="1"/>
+      <c r="O52" s="1">
         <v>2.4627540658027601E-2</v>
       </c>
-      <c r="O52" s="1"/>
-      <c r="R52" s="1"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B53">
         <v>25</v>
       </c>
@@ -2077,10 +2092,10 @@
       <c r="H53" s="1">
         <v>2.37668850258844E-2</v>
       </c>
-      <c r="O53" s="1"/>
-      <c r="R53" s="1"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B54">
         <v>30</v>
       </c>
@@ -2102,10 +2117,10 @@
       <c r="H54" s="1">
         <v>2.3648073080389999E-2</v>
       </c>
-      <c r="O54" s="1"/>
-      <c r="R54" s="1"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B55">
         <v>35</v>
       </c>
@@ -2120,10 +2135,10 @@
       <c r="H55" s="1">
         <v>2.3602407407966899E-2</v>
       </c>
-      <c r="O55" s="1"/>
-      <c r="R55" s="1"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B56">
         <v>40</v>
       </c>
@@ -2139,10 +2154,10 @@
       <c r="H56" s="1">
         <v>2.35463029372492E-2</v>
       </c>
-      <c r="O56" s="1"/>
-      <c r="R56" s="1"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+      <c r="P56" s="1"/>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B57">
         <v>50</v>
       </c>
@@ -2159,10 +2174,10 @@
       <c r="H57" s="1">
         <v>2.33929019843916E-2</v>
       </c>
-      <c r="O57" s="1"/>
-      <c r="R57" s="1"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+      <c r="P57" s="1"/>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B58">
         <v>60</v>
       </c>
@@ -2174,10 +2189,10 @@
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="R58" s="1"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+      <c r="P58" s="1"/>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B59">
         <v>70</v>
       </c>
@@ -2187,10 +2202,10 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="R59" s="1"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+      <c r="P59" s="1"/>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B60">
         <v>80</v>
       </c>
@@ -2200,10 +2215,10 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="O60" s="1"/>
-      <c r="R60" s="1"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M60" s="1"/>
+      <c r="P60" s="1"/>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B61">
         <v>90</v>
       </c>
@@ -2213,10 +2228,10 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="R61" s="1"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+      <c r="P61" s="1"/>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B62">
         <v>100</v>
       </c>
@@ -2226,10 +2241,10 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="R62" s="1"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+      <c r="P62" s="1"/>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B63">
         <v>110</v>
       </c>
@@ -2239,10 +2254,10 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="R63" s="1"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+      <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B64">
         <v>120</v>
       </c>
@@ -2252,10 +2267,10 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="R64" s="1"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B65">
         <v>130</v>
       </c>
@@ -2265,10 +2280,10 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="R65" s="1"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B66">
         <v>140</v>
       </c>
@@ -2278,10 +2293,10 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="R66" s="1"/>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B67">
         <v>150</v>
       </c>
@@ -2291,10 +2306,10 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="R67" s="1"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M67" s="1"/>
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B68">
         <v>160</v>
       </c>
@@ -2304,10 +2319,10 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="R68" s="1"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M68" s="1"/>
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B69">
         <v>180</v>
       </c>
@@ -2317,16 +2332,16 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="M69" t="s">
+      <c r="K69" t="s">
         <v>4</v>
       </c>
-      <c r="N69" t="s">
+      <c r="L69" t="s">
         <v>10</v>
       </c>
-      <c r="O69" s="1"/>
-      <c r="R69" s="1"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="M69" s="1"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -2354,19 +2369,25 @@
       <c r="I70">
         <v>0.8</v>
       </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
       <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>4</v>
+      </c>
+      <c r="M70" s="1"/>
+      <c r="N70">
+        <v>0.8</v>
+      </c>
+      <c r="O70">
         <v>1</v>
       </c>
-      <c r="M70">
-        <v>2</v>
-      </c>
-      <c r="N70">
-        <v>4</v>
-      </c>
-      <c r="O70" s="1"/>
-      <c r="R70" s="1"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B71">
         <v>0</v>
       </c>
@@ -2391,21 +2412,25 @@
       <c r="I71" s="1">
         <v>886.32122015952996</v>
       </c>
-      <c r="J71" s="1"/>
+      <c r="J71" s="1">
+        <v>1137.1982409954001</v>
+      </c>
       <c r="K71" s="1">
+        <v>4963.6720883846201</v>
+      </c>
+      <c r="L71" s="7">
+        <v>45892.364776372902</v>
+      </c>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1">
+        <v>886.32122015952996</v>
+      </c>
+      <c r="O71" s="1">
         <v>1137.1982409954001</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1">
-        <v>4963.6720883846201</v>
-      </c>
-      <c r="N71" s="7">
-        <v>45892.364776372902</v>
-      </c>
-      <c r="O71" s="1"/>
-      <c r="R71" s="1"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B72">
         <v>1</v>
       </c>
@@ -2416,19 +2441,19 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1">
+        <v>1577.45124006271</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1">
         <v>1319.0963387489301</v>
       </c>
-      <c r="J72" s="1">
-        <v>1577.45124006271</v>
-      </c>
-      <c r="K72" s="1">
+      <c r="O72" s="1">
         <v>1645.63439750671</v>
       </c>
-      <c r="L72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="R72" s="1"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B73">
         <v>2</v>
       </c>
@@ -2451,21 +2476,21 @@
         <v>1069.29786849021</v>
       </c>
       <c r="I73" s="1">
+        <v>1597.98513770103</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1909.36174058914</v>
+      </c>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1">
         <v>1378.3746190071099</v>
       </c>
-      <c r="J73" s="1">
-        <v>1597.98513770103</v>
-      </c>
-      <c r="K73" s="1">
+      <c r="O73" s="1">
         <v>1836.8634541034601</v>
       </c>
-      <c r="L73" s="1">
-        <v>1909.36174058914</v>
-      </c>
-      <c r="O73" s="1"/>
-      <c r="R73" s="1"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B74">
         <v>3</v>
       </c>
@@ -2482,19 +2507,19 @@
         <v>1087.5021066665599</v>
       </c>
       <c r="I74" s="1">
+        <v>1726.4546971321099</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1">
         <v>1457.99547314643</v>
       </c>
-      <c r="J74" s="1">
-        <v>1726.4546971321099</v>
-      </c>
-      <c r="K74" s="1">
+      <c r="O74" s="1">
         <v>2025.3154129981899</v>
       </c>
-      <c r="L74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="R74" s="1"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B75">
         <v>4</v>
       </c>
@@ -2511,21 +2536,21 @@
         <v>1107.3334188461299</v>
       </c>
       <c r="I75" s="1">
+        <v>1761.4816687107</v>
+      </c>
+      <c r="J75" s="1">
+        <v>2138.3513984680098</v>
+      </c>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1">
         <v>1545.8284432887999</v>
       </c>
-      <c r="J75" s="1">
-        <v>1761.4816687107</v>
-      </c>
-      <c r="K75" s="1">
+      <c r="O75" s="1">
         <v>2213.9609057903199</v>
       </c>
-      <c r="L75" s="1">
-        <v>2138.3513984680098</v>
-      </c>
-      <c r="O75" s="1"/>
-      <c r="R75" s="1"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B76">
         <v>5</v>
       </c>
@@ -2548,21 +2573,21 @@
         <v>1126.5503664016701</v>
       </c>
       <c r="I76" s="1">
+        <v>1836.8778202533699</v>
+      </c>
+      <c r="J76" s="1">
+        <v>2403.4270830154401</v>
+      </c>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1">
         <v>1613.5109529495201</v>
       </c>
-      <c r="J76" s="1">
-        <v>1836.8778202533699</v>
-      </c>
-      <c r="K76" s="1">
+      <c r="O76" s="1">
         <v>2632.1705551147402</v>
       </c>
-      <c r="L76" s="1">
-        <v>2403.4270830154401</v>
-      </c>
-      <c r="O76" s="1"/>
-      <c r="R76" s="1"/>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B77">
         <v>6</v>
       </c>
@@ -2576,19 +2601,19 @@
         <v>1138.31305265426</v>
       </c>
       <c r="I77" s="1">
+        <v>1856.7687716483999</v>
+      </c>
+      <c r="J77" s="1">
+        <v>2422.5239679813299</v>
+      </c>
+      <c r="N77" s="1">
         <v>1835.5909600257801</v>
       </c>
-      <c r="J77" s="1">
-        <v>1856.7687716483999</v>
-      </c>
-      <c r="K77" s="1">
+      <c r="O77" s="1">
         <v>2799.5311784744199</v>
       </c>
-      <c r="L77" s="1">
-        <v>2422.5239679813299</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B78">
         <v>7</v>
       </c>
@@ -2605,21 +2630,21 @@
         <v>1138.7168381214101</v>
       </c>
       <c r="I78" s="1">
+        <v>1830.6114695072099</v>
+      </c>
+      <c r="J78" s="1">
+        <v>2610.7797176837898</v>
+      </c>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1">
         <v>1893.12202095985</v>
       </c>
-      <c r="J78" s="1">
-        <v>1830.6114695072099</v>
-      </c>
-      <c r="K78" s="1">
+      <c r="O78" s="1">
         <v>2959.3488273620601</v>
       </c>
-      <c r="L78" s="1">
-        <v>2610.7797176837898</v>
-      </c>
-      <c r="O78" s="1"/>
-      <c r="R78" s="1"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B79">
         <v>8</v>
       </c>
@@ -2633,14 +2658,14 @@
       <c r="H79" s="1">
         <v>1131.36863136291</v>
       </c>
-      <c r="K79" s="1">
+      <c r="J79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="O79" s="1">
         <v>3084.3443856239301</v>
       </c>
-      <c r="L79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="R79" s="1"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B80">
         <v>10</v>
       </c>
@@ -2662,16 +2687,16 @@
       <c r="H80" s="1">
         <v>1151.4060320854101</v>
       </c>
-      <c r="K80" s="1">
+      <c r="J80" s="1">
+        <v>2885.6791100502001</v>
+      </c>
+      <c r="M80" s="1"/>
+      <c r="O80" s="1">
         <v>3281.1602818965898</v>
       </c>
-      <c r="L80" s="1">
-        <v>2885.6791100502001</v>
-      </c>
-      <c r="O80" s="1"/>
-      <c r="R80" s="1"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B81">
         <v>12</v>
       </c>
@@ -2685,16 +2710,16 @@
       <c r="H81" s="1">
         <v>1178.6351058483101</v>
       </c>
-      <c r="K81" s="1">
+      <c r="J81" s="1">
+        <v>2807.8396482467601</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="O81" s="1">
         <v>3723.0374476909601</v>
       </c>
-      <c r="L81" s="1">
-        <v>2807.8396482467601</v>
-      </c>
-      <c r="O81" s="1"/>
-      <c r="R81" s="1"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B82">
         <v>15</v>
       </c>
@@ -2716,14 +2741,14 @@
       <c r="H82" s="1">
         <v>1183.2220265865301</v>
       </c>
-      <c r="K82" s="1">
+      <c r="J82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="O82" s="1">
         <v>4041.9752459525998</v>
       </c>
-      <c r="L82" s="1"/>
-      <c r="O82" s="1"/>
-      <c r="R82" s="1"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B83">
         <v>17</v>
       </c>
@@ -2743,16 +2768,16 @@
       <c r="H83" s="1">
         <v>1179.41070151329</v>
       </c>
-      <c r="K83" s="1">
+      <c r="J83" s="1">
+        <v>3213.3881511688201</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="O83" s="1">
         <v>4217.6872229576102</v>
       </c>
-      <c r="L83" s="1">
-        <v>3213.3881511688201</v>
-      </c>
-      <c r="O83" s="1"/>
-      <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B84">
         <v>20</v>
       </c>
@@ -2774,13 +2799,13 @@
       <c r="H84" s="1">
         <v>1226.47889137268</v>
       </c>
-      <c r="K84" s="1">
+      <c r="M84" s="1"/>
+      <c r="O84" s="1">
         <v>4436.4494853019696</v>
       </c>
-      <c r="O84" s="1"/>
-      <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B85">
         <v>25</v>
       </c>
@@ -2800,10 +2825,10 @@
       <c r="H85" s="1">
         <v>1203.6632313728301</v>
       </c>
-      <c r="O85" s="1"/>
-      <c r="R85" s="1"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M85" s="1"/>
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B86">
         <v>30</v>
       </c>
@@ -2823,10 +2848,10 @@
       <c r="H86" s="1">
         <v>1203.7828118801101</v>
       </c>
-      <c r="O86" s="1"/>
-      <c r="R86" s="1"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M86" s="1"/>
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B87">
         <v>35</v>
       </c>
@@ -2842,10 +2867,10 @@
       <c r="H87" s="1">
         <v>1213.7677803039501</v>
       </c>
-      <c r="O87" s="1"/>
-      <c r="R87" s="1"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M87" s="1"/>
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B88">
         <v>40</v>
       </c>
@@ -2862,10 +2887,10 @@
       <c r="H88" s="1">
         <v>1204.0725727081201</v>
       </c>
-      <c r="O88" s="1"/>
-      <c r="R88" s="1"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M88" s="1"/>
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B89">
         <v>50</v>
       </c>
@@ -2881,10 +2906,10 @@
       <c r="H89" s="1">
         <v>1209.71804881095</v>
       </c>
-      <c r="O89" s="1"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M89" s="1"/>
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B90">
         <v>60</v>
       </c>
@@ -2896,10 +2921,10 @@
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="R90" s="1"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M90" s="1"/>
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B91">
         <v>70</v>
       </c>
@@ -2909,116 +2934,58 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="R91" s="1"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M91" s="1"/>
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B92">
         <v>80</v>
       </c>
       <c r="C92" s="1">
         <v>650.23892450332596</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1">
-        <v>24</v>
-      </c>
-      <c r="F92" s="1">
-        <v>36</v>
-      </c>
-      <c r="G92">
-        <v>48</v>
-      </c>
-      <c r="H92" s="1">
-        <v>60</v>
-      </c>
-      <c r="O92" s="1"/>
-      <c r="R92" s="1"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M92" s="1"/>
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B93">
         <v>90</v>
       </c>
       <c r="C93" s="1">
         <v>604.45812916755597</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" t="s">
-        <v>14</v>
-      </c>
-      <c r="H93" t="s">
-        <v>11</v>
-      </c>
-      <c r="O93" s="1"/>
-      <c r="R93" s="1"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M93" s="1"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B94">
         <v>100</v>
       </c>
       <c r="C94" s="1">
         <v>602.84070539474396</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="F94" s="1">
-        <v>1.04103748499782E-3</v>
-      </c>
-      <c r="G94" s="1">
-        <v>1.1172492271678801E-3</v>
-      </c>
-      <c r="H94" s="1">
-        <v>1.17767541896099E-3</v>
-      </c>
-      <c r="O94" s="1"/>
-      <c r="R94" s="1"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M94" s="1"/>
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B95">
         <v>110</v>
       </c>
       <c r="C95" s="1">
         <v>647.16305041313103</v>
       </c>
-      <c r="D95" s="1">
-        <v>17</v>
-      </c>
-      <c r="E95" s="1">
-        <v>9.9817778721090805E-4</v>
-      </c>
-      <c r="F95" s="1">
-        <v>1.03407790656319E-3</v>
-      </c>
-      <c r="G95" s="8">
-        <v>1.09899598583295E-3</v>
-      </c>
-      <c r="H95" s="1">
-        <v>1.1640093122675999E-3</v>
-      </c>
-      <c r="O95" s="1"/>
-      <c r="R95" s="1"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="M95" s="1"/>
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B96">
         <v>120</v>
       </c>
       <c r="C96" s="1">
         <v>635.24019193649201</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="G96" s="1">
-        <v>1.1299722121443699E-3</v>
-      </c>
-      <c r="H96" s="1">
-        <v>1.1801148282000399E-3</v>
-      </c>
-      <c r="O96" s="1"/>
-      <c r="R96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="P96" s="1"/>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97">
@@ -3027,7 +2994,6 @@
       <c r="C97" s="1">
         <v>623.24643778800896</v>
       </c>
-      <c r="D97" s="1"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98">
@@ -3036,19 +3002,6 @@
       <c r="C98" s="1">
         <v>629.85961127281098</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="F98">
-        <f t="shared" ref="F98:G98" si="5">F95/E95</f>
-        <v>1.0359656564313993</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="5"/>
-        <v>1.0627787121818688</v>
-      </c>
-      <c r="H98">
-        <f>H95/G95</f>
-        <v>1.0591570190180224</v>
-      </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99">
@@ -3057,7 +3010,6 @@
       <c r="C99" s="1">
         <v>628.10421156883206</v>
       </c>
-      <c r="D99" s="1"/>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100">
@@ -3066,7 +3018,6 @@
       <c r="C100" s="1">
         <v>582.712312459945</v>
       </c>
-      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101">
@@ -3075,119 +3026,106 @@
       <c r="C101" s="1">
         <v>578.09617090225197</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="F101" s="1">
-        <v>2.0202150000071601E-2</v>
-      </c>
-      <c r="G101" s="1">
-        <v>1.9820707938899802E-2</v>
-      </c>
-      <c r="H101" s="1">
-        <v>1.95443797894111E-2</v>
-      </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C102" s="1"/>
-      <c r="D102" s="1">
-        <v>17</v>
-      </c>
-      <c r="E102" s="1">
-        <v>1.9781248884321499E-2</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1.95977063590306E-2</v>
-      </c>
-      <c r="G102" s="1">
-        <v>1.9299226006063E-2</v>
-      </c>
-      <c r="H102" s="1">
-        <v>1.9075819420616699E-2</v>
-      </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C103" s="1"/>
-      <c r="D103" s="1">
-        <v>20</v>
-      </c>
-      <c r="G103" s="1">
-        <v>1.83422922027832E-2</v>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1">
+        <v>24</v>
+      </c>
+      <c r="F103" s="1">
+        <v>36</v>
+      </c>
+      <c r="G103">
+        <v>48</v>
       </c>
       <c r="H103" s="1">
-        <v>1.8105698905103398E-2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
+      <c r="F105" s="1">
+        <v>1.04103748499782E-3</v>
+      </c>
+      <c r="G105" s="1">
+        <v>1.1172492271678801E-3</v>
+      </c>
+      <c r="H105" s="1">
+        <v>1.17767541896099E-3</v>
+      </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="D106" s="1">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E106" s="1">
+        <v>9.9817778721090805E-4</v>
       </c>
       <c r="F106" s="1">
-        <v>729.44797325134198</v>
-      </c>
-      <c r="G106" s="1">
-        <v>687.46679902076698</v>
+        <v>1.03407790656319E-3</v>
+      </c>
+      <c r="G106" s="8">
+        <v>1.09899598583295E-3</v>
       </c>
       <c r="H106" s="1">
-        <v>645.60670471191395</v>
+        <v>1.1640093122675999E-3</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C107" s="1"/>
-      <c r="D107" s="1">
-        <v>17</v>
-      </c>
-      <c r="E107" s="1">
-        <v>844.90670657157898</v>
-      </c>
-      <c r="F107" s="1">
-        <v>735.76322197914101</v>
-      </c>
+      <c r="D107" s="1"/>
       <c r="G107" s="1">
-        <v>686.35096693038895</v>
+        <v>1.1299722121443699E-3</v>
       </c>
       <c r="H107" s="1">
-        <v>647.02553582191399</v>
+        <v>1.1801148282000399E-3</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
-      <c r="D108" s="1">
-        <v>20</v>
-      </c>
-      <c r="G108" s="1">
-        <v>673.78022432327202</v>
-      </c>
-      <c r="H108" s="1">
-        <v>640.65357160568203</v>
-      </c>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
+      <c r="F109">
+        <f t="shared" ref="F109:G109" si="5">F106/E106</f>
+        <v>1.0359656564313993</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>1.0627787121818688</v>
+      </c>
+      <c r="H109">
+        <f>H106/G106</f>
+        <v>1.0591570190180224</v>
+      </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
-      <c r="F110">
-        <f t="shared" ref="F110:G110" si="6">E107/F107</f>
-        <v>1.1483405004926057</v>
-      </c>
-      <c r="G110">
-        <f t="shared" si="6"/>
-        <v>1.0719926938687676</v>
-      </c>
-      <c r="H110">
-        <f>G107/H107</f>
-        <v>1.0607787930016086</v>
-      </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C111" s="1"/>
@@ -3196,68 +3134,144 @@
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F112" s="1">
+        <v>2.0202150000071601E-2</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1.9820707938899802E-2</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1.95443797894111E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C113" s="1"/>
-      <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="1">
+        <v>17</v>
+      </c>
+      <c r="E113" s="1">
+        <v>1.9781248884321499E-2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>1.95977063590306E-2</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1.9299226006063E-2</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1.9075819420616699E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C114" s="1"/>
-      <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="1">
+        <v>20</v>
+      </c>
+      <c r="G114" s="1">
+        <v>1.83422922027832E-2</v>
+      </c>
+      <c r="H114" s="1">
+        <v>1.8105698905103398E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C117" s="1"/>
-      <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="1">
+        <v>15</v>
+      </c>
+      <c r="F117" s="1">
+        <v>729.44797325134198</v>
+      </c>
+      <c r="G117" s="1">
+        <v>687.46679902076698</v>
+      </c>
+      <c r="H117" s="1">
+        <v>645.60670471191395</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="1">
+        <v>17</v>
+      </c>
+      <c r="E118" s="1">
+        <v>844.90670657157898</v>
+      </c>
+      <c r="F118" s="1">
+        <v>735.76322197914101</v>
+      </c>
+      <c r="G118" s="1">
+        <v>686.35096693038895</v>
+      </c>
+      <c r="H118" s="1">
+        <v>647.02553582191399</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="1">
+        <v>20</v>
+      </c>
+      <c r="G119" s="1">
+        <v>673.78022432327202</v>
+      </c>
+      <c r="H119" s="1">
+        <v>640.65357160568203</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="F121">
+        <f t="shared" ref="F121:G121" si="6">E118/F118</f>
+        <v>1.1483405004926057</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="6"/>
+        <v>1.0719926938687676</v>
+      </c>
+      <c r="H121">
+        <f>G118/H118</f>
+        <v>1.0607787930016086</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
